--- a/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B428DC-00A4-4D5A-AD20-6A21B24FA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CFDF9F2-F9D8-4930-B8AC-7E8E32CC69C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF37DD79-2E18-4DB0-9B85-64EC4DAE4112}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D22D48A-1831-4F05-B488-F42DDE8D4E73}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="273">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,712 +143,700 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -857,7 +845,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1278,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162650D7-04F5-44CE-80A0-C6AB3202C017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84A120-C044-422E-8281-A45E3091467E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2051,10 +2039,10 @@
         <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2090,7 +2078,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2105,7 +2093,7 @@
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2149,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2173,13 +2161,13 @@
         <v>45721</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2188,13 +2176,13 @@
         <v>65893</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -2203,13 +2191,13 @@
         <v>111614</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2212,13 @@
         <v>91647</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -2239,13 +2227,13 @@
         <v>133791</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -2254,13 +2242,13 @@
         <v>225438</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2263,13 @@
         <v>9781</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2290,13 +2278,13 @@
         <v>7477</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2305,13 +2293,13 @@
         <v>17258</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2347,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2362,7 +2350,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2406,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2430,13 +2418,13 @@
         <v>25130</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2445,13 +2433,13 @@
         <v>12506</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2460,13 +2448,13 @@
         <v>37637</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2469,13 @@
         <v>50067</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -2496,13 +2484,13 @@
         <v>62038</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
@@ -2511,13 +2499,13 @@
         <v>112105</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2520,13 @@
         <v>2845</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2547,13 +2535,13 @@
         <v>4812</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2562,13 +2550,13 @@
         <v>7657</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2604,7 +2592,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2619,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2663,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2687,13 +2675,13 @@
         <v>6828</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2702,13 +2690,13 @@
         <v>4268</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2717,13 +2705,13 @@
         <v>11096</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>123281</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -2753,13 +2741,13 @@
         <v>115142</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>361</v>
@@ -2768,13 +2756,13 @@
         <v>238422</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2783,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2846,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3049,10 +3037,10 @@
         <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3061,13 +3049,13 @@
         <v>5563</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3076,13 +3064,13 @@
         <v>12888</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3091,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3118,7 +3106,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3127,13 +3115,13 @@
         <v>1523</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3177,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3189,13 @@
         <v>131216</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H39" s="7">
         <v>127</v>
@@ -3216,13 +3204,13 @@
         <v>114453</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M39" s="7">
         <v>231</v>
@@ -3231,13 +3219,13 @@
         <v>245669</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3240,13 @@
         <v>285354</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H40" s="7">
         <v>383</v>
@@ -3267,13 +3255,13 @@
         <v>301965</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>611</v>
@@ -3282,13 +3270,13 @@
         <v>587320</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>160</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3318,13 +3306,13 @@
         <v>5846</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -3333,13 +3321,13 @@
         <v>6006</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3375,7 +3363,7 @@
         <v>32</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3390,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3446,13 @@
         <v>373927</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H44" s="7">
         <v>377</v>
@@ -3473,13 +3461,13 @@
         <v>321529</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M44" s="7">
         <v>706</v>
@@ -3488,13 +3476,13 @@
         <v>695456</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3497,13 @@
         <v>1115935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H45" s="7">
         <v>1952</v>
@@ -3524,13 +3512,13 @@
         <v>1326475</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M45" s="7">
         <v>3061</v>
@@ -3539,13 +3527,13 @@
         <v>2442410</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3548,13 @@
         <v>28668</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H46" s="7">
         <v>45</v>
@@ -3575,13 +3563,13 @@
         <v>35160</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
@@ -3590,13 +3578,13 @@
         <v>63828</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3605,7 @@
         <v>32</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3626,13 +3614,13 @@
         <v>1523</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -3641,13 +3629,13 @@
         <v>1523</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,7 +3691,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CFDF9F2-F9D8-4930-B8AC-7E8E32CC69C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B664B86B-F128-48F8-BE30-BA62EB939ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D22D48A-1831-4F05-B488-F42DDE8D4E73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11D09AFE-1A19-4092-BB97-B22E23A67CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84A120-C044-422E-8281-A45E3091467E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7708D323-B574-4C46-93C4-3C7213235AD8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B664B86B-F128-48F8-BE30-BA62EB939ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18AFC95-4A7E-4095-B0AA-B104DFEE3017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11D09AFE-1A19-4092-BB97-B22E23A67CD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC055CC7-C1D7-4475-B664-04EC77741F19}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -170,171 +170,177 @@
     <t>24,91%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
     <t>0,86%</t>
   </si>
   <si>
@@ -347,55 +353,55 @@
     <t>31,07%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>62,28%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>63,63%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>6,65%</t>
@@ -404,25 +410,25 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>15,21%</t>
+    <t>16,9%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -440,151 +446,145 @@
     <t>32,2%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>71,22%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -599,79 +599,85 @@
     <t>22,89%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -686,73 +692,76 @@
     <t>31,49%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>71,51%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,18%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -764,79 +773,82 @@
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -845,7 +857,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1266,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7708D323-B574-4C46-93C4-3C7213235AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E565B5-26C7-4626-91DF-BDA80168A0D4}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2039,10 +2051,10 @@
         <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2075,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2078,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2093,7 +2105,7 @@
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2161,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2161,13 +2173,13 @@
         <v>45721</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2176,13 +2188,13 @@
         <v>65893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -2191,13 +2203,13 @@
         <v>111614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2224,13 @@
         <v>91647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -2227,13 +2239,13 @@
         <v>133791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -2242,13 +2254,13 @@
         <v>225438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2275,13 @@
         <v>9781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2278,13 +2290,13 @@
         <v>7477</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2293,13 +2305,13 @@
         <v>17258</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2335,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2350,7 +2362,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2418,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2418,13 +2430,13 @@
         <v>25130</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2433,13 +2445,13 @@
         <v>12506</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2448,13 +2460,13 @@
         <v>37637</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2481,13 @@
         <v>50067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -2484,13 +2496,13 @@
         <v>62038</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
@@ -2499,13 +2511,13 @@
         <v>112105</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2532,13 @@
         <v>2845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2535,13 +2547,13 @@
         <v>4812</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2550,13 +2562,13 @@
         <v>7657</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2592,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2607,7 +2619,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2675,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2675,13 +2687,13 @@
         <v>6828</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2690,13 +2702,13 @@
         <v>4268</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2705,13 +2717,13 @@
         <v>11096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>123281</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -2741,13 +2753,13 @@
         <v>115142</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>361</v>
@@ -2756,13 +2768,13 @@
         <v>238422</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2834,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3037,10 +3049,10 @@
         <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3049,13 +3061,13 @@
         <v>5563</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -3064,13 +3076,13 @@
         <v>12888</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3103,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3106,7 +3118,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3115,13 +3127,13 @@
         <v>1523</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3189,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3189,13 +3201,13 @@
         <v>131216</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H39" s="7">
         <v>127</v>
@@ -3204,13 +3216,13 @@
         <v>114453</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M39" s="7">
         <v>231</v>
@@ -3219,13 +3231,13 @@
         <v>245669</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3252,13 @@
         <v>285354</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H40" s="7">
         <v>383</v>
@@ -3255,13 +3267,13 @@
         <v>301965</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>611</v>
@@ -3270,13 +3282,13 @@
         <v>587320</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3303,13 @@
         <v>160</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3306,13 +3318,13 @@
         <v>5846</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -3321,13 +3333,13 @@
         <v>6006</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3360,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3363,7 +3375,7 @@
         <v>32</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3378,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3458,13 @@
         <v>373927</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H44" s="7">
         <v>377</v>
@@ -3461,13 +3473,13 @@
         <v>321529</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M44" s="7">
         <v>706</v>
@@ -3476,13 +3488,13 @@
         <v>695456</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3509,13 @@
         <v>1115935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H45" s="7">
         <v>1952</v>
@@ -3512,13 +3524,13 @@
         <v>1326475</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M45" s="7">
         <v>3061</v>
@@ -3527,13 +3539,13 @@
         <v>2442410</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3560,13 @@
         <v>28668</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H46" s="7">
         <v>45</v>
@@ -3563,13 +3575,13 @@
         <v>35160</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
@@ -3578,13 +3590,13 @@
         <v>63828</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,7 +3617,7 @@
         <v>32</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3614,13 +3626,13 @@
         <v>1523</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -3629,13 +3641,13 @@
         <v>1523</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3703,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18AFC95-4A7E-4095-B0AA-B104DFEE3017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4832A6C7-0302-4FA0-B81A-7F2B3AE5F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC055CC7-C1D7-4475-B664-04EC77741F19}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76A3F9CC-4EAC-4D72-A0C4-A406C4F6F520}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="273">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,727 +140,715 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -1278,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E565B5-26C7-4626-91DF-BDA80168A0D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1D1542-00DB-45D9-B6EC-63DAEB41C48E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>26188</v>
+        <v>30961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1414,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>20105</v>
+        <v>23204</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1429,7 +1417,7 @@
         <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>46293</v>
+        <v>54165</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1450,7 +1438,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>99304</v>
+        <v>123305</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1465,7 +1453,7 @@
         <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>96881</v>
+        <v>102567</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1480,7 +1468,7 @@
         <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>196185</v>
+        <v>225872</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1516,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1531,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1603,7 +1591,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1618,7 +1606,7 @@
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1633,7 +1621,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
@@ -1656,7 +1644,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>52637</v>
+        <v>53837</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -1671,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>35312</v>
+        <v>32338</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -1686,7 +1674,7 @@
         <v>73</v>
       </c>
       <c r="N9" s="7">
-        <v>87949</v>
+        <v>86175</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>49</v>
@@ -1707,7 +1695,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>152376</v>
+        <v>151222</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -1722,7 +1710,7 @@
         <v>276</v>
       </c>
       <c r="I10" s="7">
-        <v>212904</v>
+        <v>198384</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -1737,7 +1725,7 @@
         <v>398</v>
       </c>
       <c r="N10" s="7">
-        <v>365280</v>
+        <v>349607</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>58</v>
@@ -1758,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>6260</v>
+        <v>6214</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>61</v>
@@ -1773,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>6999</v>
+        <v>6558</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
@@ -1788,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>13259</v>
+        <v>12772</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>67</v>
@@ -1875,7 +1863,7 @@
         <v>326</v>
       </c>
       <c r="I13" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -1890,7 +1878,7 @@
         <v>486</v>
       </c>
       <c r="N13" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -1913,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>14778</v>
+        <v>14371</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1928,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>18517</v>
+        <v>17191</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1943,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>33295</v>
+        <v>31562</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1964,7 +1952,7 @@
         <v>95</v>
       </c>
       <c r="D15" s="7">
-        <v>80589</v>
+        <v>78267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>83</v>
@@ -1979,7 +1967,7 @@
         <v>195</v>
       </c>
       <c r="I15" s="7">
-        <v>132823</v>
+        <v>124682</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>86</v>
@@ -1994,7 +1982,7 @@
         <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>213412</v>
+        <v>202949</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>89</v>
@@ -2015,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2297</v>
+        <v>2274</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>92</v>
@@ -2030,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3926</v>
+        <v>3668</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>94</v>
@@ -2045,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>6223</v>
+        <v>5942</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>97</v>
@@ -2117,7 +2105,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>41</v>
@@ -2132,7 +2120,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -2147,7 +2135,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>41</v>
@@ -2170,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>45721</v>
+        <v>44096</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2185,7 +2173,7 @@
         <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>65893</v>
+        <v>116344</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2200,7 +2188,7 @@
         <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>111614</v>
+        <v>160441</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2221,7 +2209,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>91647</v>
+        <v>88019</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2236,7 +2224,7 @@
         <v>207</v>
       </c>
       <c r="I20" s="7">
-        <v>133791</v>
+        <v>123349</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2245,22 +2233,22 @@
         <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
       </c>
       <c r="N20" s="7">
-        <v>225438</v>
+        <v>211368</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,46 +2260,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>9781</v>
+        <v>9261</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>7477</v>
+        <v>6867</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
       </c>
       <c r="N21" s="7">
-        <v>17258</v>
+        <v>16128</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2347,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2362,7 +2350,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,7 +2362,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>41</v>
@@ -2389,7 +2377,7 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -2404,7 +2392,7 @@
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>41</v>
@@ -2418,7 +2406,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2427,46 +2415,46 @@
         <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>25130</v>
+        <v>22734</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>12506</v>
+        <v>10999</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>37637</v>
+        <v>33733</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,46 +2466,46 @@
         <v>73</v>
       </c>
       <c r="D25" s="7">
-        <v>50067</v>
+        <v>45410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
       </c>
       <c r="I25" s="7">
-        <v>62038</v>
+        <v>56287</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
       </c>
       <c r="N25" s="7">
-        <v>112105</v>
+        <v>101696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,46 +2517,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2845</v>
+        <v>2561</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4812</v>
+        <v>4076</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>7657</v>
+        <v>6636</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2604,7 +2592,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2619,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2619,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>41</v>
@@ -2646,7 +2634,7 @@
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>41</v>
@@ -2661,7 +2649,7 @@
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>41</v>
@@ -2675,7 +2663,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2684,46 +2672,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>6828</v>
+        <v>6465</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>4268</v>
+        <v>3934</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
       </c>
       <c r="N29" s="7">
-        <v>11096</v>
+        <v>10398</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,46 +2723,46 @@
         <v>167</v>
       </c>
       <c r="D30" s="7">
-        <v>123281</v>
+        <v>119129</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
       </c>
       <c r="I30" s="7">
-        <v>115142</v>
+        <v>107018</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>361</v>
       </c>
       <c r="N30" s="7">
-        <v>238422</v>
+        <v>226148</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2798,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2825,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2849,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2876,7 +2864,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2876,7 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>41</v>
@@ -2903,7 +2891,7 @@
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>41</v>
@@ -2918,7 +2906,7 @@
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -2932,7 +2920,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2941,46 +2929,46 @@
         <v>57</v>
       </c>
       <c r="D34" s="7">
-        <v>71429</v>
+        <v>72478</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
       </c>
       <c r="I34" s="7">
-        <v>50475</v>
+        <v>46997</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>120</v>
       </c>
       <c r="N34" s="7">
-        <v>121904</v>
+        <v>119475</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,46 +2980,46 @@
         <v>222</v>
       </c>
       <c r="D35" s="7">
-        <v>233319</v>
+        <v>231987</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>365</v>
       </c>
       <c r="I35" s="7">
-        <v>270929</v>
+        <v>253240</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M35" s="7">
         <v>587</v>
       </c>
       <c r="N35" s="7">
-        <v>504248</v>
+        <v>485227</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,10 +3031,10 @@
         <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>7324</v>
+        <v>7271</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>204</v>
@@ -3058,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="I36" s="7">
-        <v>5563</v>
+        <v>5218</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>206</v>
@@ -3073,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="N36" s="7">
-        <v>12888</v>
+        <v>12488</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>209</v>
@@ -3109,22 +3097,22 @@
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>214</v>
@@ -3145,7 +3133,7 @@
         <v>285</v>
       </c>
       <c r="D38" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>41</v>
@@ -3160,7 +3148,7 @@
         <v>436</v>
       </c>
       <c r="I38" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>41</v>
@@ -3175,7 +3163,7 @@
         <v>721</v>
       </c>
       <c r="N38" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>41</v>
@@ -3198,7 +3186,7 @@
         <v>104</v>
       </c>
       <c r="D39" s="7">
-        <v>131216</v>
+        <v>110202</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>217</v>
@@ -3213,7 +3201,7 @@
         <v>127</v>
       </c>
       <c r="I39" s="7">
-        <v>114453</v>
+        <v>93116</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>220</v>
@@ -3228,16 +3216,16 @@
         <v>231</v>
       </c>
       <c r="N39" s="7">
-        <v>245669</v>
+        <v>203318</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>223</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,46 +3237,46 @@
         <v>228</v>
       </c>
       <c r="D40" s="7">
-        <v>285354</v>
+        <v>443553</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H40" s="7">
         <v>383</v>
       </c>
       <c r="I40" s="7">
-        <v>301965</v>
+        <v>251077</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>611</v>
       </c>
       <c r="N40" s="7">
-        <v>587320</v>
+        <v>694629</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,46 +3288,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>5846</v>
+        <v>4914</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
       </c>
       <c r="N41" s="7">
-        <v>6006</v>
+        <v>5075</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3363,7 @@
         <v>32</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3390,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3390,7 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>41</v>
@@ -3417,7 +3405,7 @@
         <v>517</v>
       </c>
       <c r="I43" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>41</v>
@@ -3432,7 +3420,7 @@
         <v>850</v>
       </c>
       <c r="N43" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>41</v>
@@ -3455,46 +3443,46 @@
         <v>329</v>
       </c>
       <c r="D44" s="7">
-        <v>373927</v>
+        <v>355145</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H44" s="7">
         <v>377</v>
       </c>
       <c r="I44" s="7">
-        <v>321529</v>
+        <v>344124</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M44" s="7">
         <v>706</v>
       </c>
       <c r="N44" s="7">
-        <v>695456</v>
+        <v>699268</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,46 +3494,46 @@
         <v>1109</v>
       </c>
       <c r="D45" s="7">
-        <v>1115935</v>
+        <v>1280892</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H45" s="7">
         <v>1952</v>
       </c>
       <c r="I45" s="7">
-        <v>1326475</v>
+        <v>1216604</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M45" s="7">
         <v>3061</v>
       </c>
       <c r="N45" s="7">
-        <v>2442410</v>
+        <v>2497496</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,46 +3545,46 @@
         <v>22</v>
       </c>
       <c r="D46" s="7">
-        <v>28668</v>
+        <v>27741</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H46" s="7">
         <v>45</v>
       </c>
       <c r="I46" s="7">
-        <v>35160</v>
+        <v>31847</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
       </c>
       <c r="N46" s="7">
-        <v>63828</v>
+        <v>59588</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,37 +3605,37 @@
         <v>32</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
       </c>
       <c r="I47" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
       </c>
       <c r="N47" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,7 +3647,7 @@
         <v>1460</v>
       </c>
       <c r="D48" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>41</v>
@@ -3674,7 +3662,7 @@
         <v>2376</v>
       </c>
       <c r="I48" s="7">
-        <v>1684687</v>
+        <v>1593974</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>41</v>
@@ -3689,7 +3677,7 @@
         <v>3836</v>
       </c>
       <c r="N48" s="7">
-        <v>3203218</v>
+        <v>3257752</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>41</v>
@@ -3703,7 +3691,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
